--- a/timeline.xlsx
+++ b/timeline.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hoctap\cnpmcs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learning\cnpmcs\Document_Git\ErrorMonitoring_Doc\ErrorMonitoring_Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED42F5B-1FA9-4F15-81AA-B72ED3578684}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C9B404-5D84-46DD-B5D4-26FDCF9C4392}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{76CB0C42-CFD9-45EC-B875-E29524A0BCBA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{76CB0C42-CFD9-45EC-B875-E29524A0BCBA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="General" sheetId="1" r:id="rId1"/>
+    <sheet name="Module" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,28 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>tổng thời gian : 16 tuần</t>
-  </si>
-  <si>
-    <t>từ : 15/3</t>
-  </si>
-  <si>
-    <t>đến: 28/6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">giai đoạn </t>
-  </si>
-  <si>
-    <t>viết PR</t>
-  </si>
-  <si>
-    <t>Xây nền + học ngôn ngữ</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Module</t>
   </si>
@@ -69,44 +49,110 @@
     <t>issue</t>
   </si>
   <si>
-    <t>notification</t>
-  </si>
-  <si>
     <t>automation test</t>
   </si>
   <si>
-    <t>Thời gian</t>
-  </si>
-  <si>
-    <t>viết báo cáo</t>
-  </si>
-  <si>
     <t xml:space="preserve">module </t>
   </si>
   <si>
-    <t>lấy yêu cầu</t>
-  </si>
-  <si>
-    <t>phân tích thiết kế</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>kiểm thử</t>
-  </si>
-  <si>
-    <t>triển khai</t>
-  </si>
-  <si>
-    <t>Seminar</t>
+    <t>TimeLine</t>
+  </si>
+  <si>
+    <t>Issues</t>
+  </si>
+  <si>
+    <t>Automation test</t>
+  </si>
+  <si>
+    <t>Analysic</t>
+  </si>
+  <si>
+    <t>Requirement gathering</t>
+  </si>
+  <si>
+    <t>5/4-18/4</t>
+  </si>
+  <si>
+    <t>19/4 - 2/5</t>
+  </si>
+  <si>
+    <t>3/5 - 16/5</t>
+  </si>
+  <si>
+    <t>17/5 - 30/5</t>
+  </si>
+  <si>
+    <t>During</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>Project timeline</t>
+  </si>
+  <si>
+    <t>General Timeline</t>
+  </si>
+  <si>
+    <t>Module Timeline</t>
+  </si>
+  <si>
+    <t>Timeline Detail</t>
+  </si>
+  <si>
+    <t>All Time</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>13 Weeks</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Numer of Week</t>
+  </si>
+  <si>
+    <t>From Date</t>
+  </si>
+  <si>
+    <t>To Date</t>
+  </si>
+  <si>
+    <t>Write PR</t>
+  </si>
+  <si>
+    <t>Build Base App + Learning</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Requirement Gathering</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Number of Day</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,19 +168,267 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -143,9 +437,131 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,144 +876,778 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC7E230A-7B4B-47A9-AA4B-FD83CE67738D}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="28" customFormat="1" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="D1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="30"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="32">
+        <v>44270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="32">
+        <v>44360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="18"/>
+    </row>
+    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="35"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="54"/>
+      <c r="C9" s="25">
+        <v>1</v>
+      </c>
+      <c r="D9" s="27">
+        <v>44270</v>
+      </c>
+      <c r="E9" s="27">
+        <v>44276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="56"/>
+      <c r="C10" s="20">
+        <v>2</v>
+      </c>
+      <c r="D10" s="22">
+        <v>44277</v>
+      </c>
+      <c r="E10" s="19">
+        <v>44290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="57" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C11" s="25">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D11" s="27">
+        <v>44291</v>
+      </c>
+      <c r="E11" s="27">
+        <v>44304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="58"/>
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="25">
+        <v>2</v>
+      </c>
+      <c r="D12" s="27">
+        <v>44305</v>
+      </c>
+      <c r="E12" s="27">
+        <v>44318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="58"/>
+      <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="C13" s="25">
+        <v>2</v>
+      </c>
+      <c r="D13" s="27">
+        <v>44319</v>
+      </c>
+      <c r="E13" s="27">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="59"/>
+      <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="C14" s="25">
+        <v>2</v>
+      </c>
+      <c r="D14" s="27">
+        <v>44333</v>
+      </c>
+      <c r="E14" s="27">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="61"/>
+      <c r="C15" s="21">
+        <v>2</v>
+      </c>
+      <c r="D15" s="23">
+        <v>44347</v>
+      </c>
+      <c r="E15" s="24">
+        <v>44360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="34"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E6">
+      <c r="B18" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="25">
         <v>14</v>
       </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7F2898-310E-41E0-9F71-8246A7F2E5A0}">
+  <dimension ref="A1:U15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="36" customFormat="1" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="I1" s="37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="38" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="I2" s="39"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f>_xlfn.DAYS(General!E14,General!D11)</f>
+        <v>55</v>
+      </c>
+      <c r="B4" s="8">
+        <f ca="1">_xlfn.DAYS(TODAY(),General!D11)</f>
+        <v>41</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="6"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="6"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="46"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="47"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="46"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="47"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="46"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="47"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="52"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="G6:U6"/>
+    <mergeCell ref="L7:U7"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B9:P9"/>
+    <mergeCell ref="B4:U4"/>
+    <mergeCell ref="B3:U3"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="Q5:U5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B4:U4">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="55"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{213DE644-5175-4F8E-8A41-3A075E149BBB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="69"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C5561E14-398D-4031-A971-B18A78994101}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="90"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{43CE4DC2-91E5-4DCC-A695-77690DEA2DCE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{305B753A-8680-4F3D-81A4-72A8D7850959}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{908AC01F-4A11-4830-B35C-47AD45039363}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{213DE644-5175-4F8E-8A41-3A075E149BBB}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>55</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{C5561E14-398D-4031-A971-B18A78994101}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>69</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{43CE4DC2-91E5-4DCC-A695-77690DEA2DCE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>90</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{305B753A-8680-4F3D-81A4-72A8D7850959}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{908AC01F-4A11-4830-B35C-47AD45039363}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B4:U4</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/timeline.xlsx
+++ b/timeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learning\cnpmcs\Document_Git\ErrorMonitoring_Doc\ErrorMonitoring_Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C9B404-5D84-46DD-B5D4-26FDCF9C4392}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5315F77-584C-445E-A06D-F41B4FFA9ABE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{76CB0C42-CFD9-45EC-B875-E29524A0BCBA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{76CB0C42-CFD9-45EC-B875-E29524A0BCBA}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -441,20 +441,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -497,23 +485,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
@@ -523,21 +499,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -547,6 +517,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -557,10 +533,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -878,7 +878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC7E230A-7B4B-47A9-AA4B-FD83CE67738D}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -893,228 +893,228 @@
     <col min="7" max="7" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="28" customFormat="1" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="D1" s="29" t="s">
+    <row r="1" spans="1:8" s="24" customFormat="1" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="D1" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="55"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="21" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="26">
         <v>44270</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="26">
         <v>44360</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="56"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="16" t="s">
+      <c r="B8" s="53"/>
+      <c r="C8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="25">
+      <c r="B9" s="44"/>
+      <c r="C9" s="21">
         <v>1</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="23">
         <v>44270</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="23">
         <v>44276</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="20">
+      <c r="B10" s="46"/>
+      <c r="C10" s="16">
         <v>2</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="18">
         <v>44277</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="15">
         <v>44290</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="49" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="21">
         <v>2</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="23">
         <v>44291</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="23">
         <v>44304</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="21">
         <v>2</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="23">
         <v>44305</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="23">
         <v>44318</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="21">
         <v>2</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="23">
         <v>44319</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="23">
         <v>44332</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="21">
         <v>2</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="23">
         <v>44333</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="23">
         <v>44346</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="21">
+      <c r="B15" s="48"/>
+      <c r="C15" s="17">
         <v>2</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="19">
         <v>44347</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="20">
         <v>44360</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="34"/>
+      <c r="B17" s="43"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="22">
         <v>1</v>
       </c>
     </row>
@@ -1122,21 +1122,21 @@
       <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="21">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1147,7 +1147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7F2898-310E-41E0-9F71-8246A7F2E5A0}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1162,358 +1162,353 @@
     <col min="16" max="16" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="36" customFormat="1" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="I1" s="37" t="s">
+    <row r="1" spans="1:21" s="28" customFormat="1" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="I1" s="29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="38" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="I2" s="39"/>
+    <row r="2" spans="1:21" s="30" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>_xlfn.DAYS(General!E14,General!D11)</f>
         <v>55</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="52">
         <f ca="1">_xlfn.DAYS(TODAY(),General!D11)</f>
         <v>41</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="6"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="53"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="8" t="s">
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="8" t="s">
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="5" t="s">
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="6"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="53"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="46"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="58"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="46"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="58"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="46"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="58"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="52"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="41"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G6:U6"/>
-    <mergeCell ref="L7:U7"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:K8"/>
     <mergeCell ref="B9:P9"/>
     <mergeCell ref="B4:U4"/>
     <mergeCell ref="B3:U3"/>
@@ -1521,6 +1516,11 @@
     <mergeCell ref="G5:K5"/>
     <mergeCell ref="L5:P5"/>
     <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="G6:U6"/>
+    <mergeCell ref="L7:U7"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:K8"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:U4">
     <cfRule type="dataBar" priority="1">
